--- a/DMA.xlsx
+++ b/DMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\UDESC\ThermoPhase - 2024\Testes de Consistência\consistency_tests_2024-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B04313B-B2FA-4512-99AE-86B1F7126C04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97032AA-316E-46E8-A04C-7C0127CA4342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{35D56D3F-F57D-420C-B598-51476CACF5C2}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="10245" windowHeight="8715" firstSheet="1" activeTab="1" xr2:uid="{35D56D3F-F57D-420C-B598-51476CACF5C2}"/>
   </bookViews>
   <sheets>
     <sheet name="dmaof_5_altamash" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>T [K]</t>
   </si>
@@ -52,124 +46,15 @@
     <t>P[Pa]</t>
   </si>
   <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [K]</t>
-    </r>
-  </si>
-  <si>
-    <t>ΔT [K]</t>
-  </si>
-  <si>
-    <t>dT(T0T)</t>
-  </si>
-  <si>
     <t>ln(P)</t>
   </si>
   <si>
     <t>1/T</t>
   </si>
   <si>
-    <r>
-      <t>1/T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
-    <t>aw</t>
-  </si>
-  <si>
-    <t>ln(aw)</t>
-  </si>
-  <si>
-    <t>ln(COSMO-RS)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">COSMO-RS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>γw</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">COSMO-RS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>γw  CORR</t>
-    </r>
-  </si>
-  <si>
-    <t>COSMO-RS aw</t>
-  </si>
-  <si>
-    <t>ln(aw) COSMO-RS</t>
-  </si>
-  <si>
-    <t>xw</t>
-  </si>
-  <si>
-    <t>xIL</t>
-  </si>
-  <si>
-    <t>xIL cosmo</t>
-  </si>
-  <si>
-    <t>RD COSMO-RS - aw</t>
-  </si>
-  <si>
-    <t>RD COSMO-RS - LN(aw)</t>
-  </si>
-  <si>
-    <t>xIL eff</t>
-  </si>
-  <si>
     <t>ALTAMASH et al. [34]</t>
   </si>
   <si>
@@ -177,6 +62,45 @@
   </si>
   <si>
     <t>[DMA][Of] 10 wt%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System </t>
+  </si>
+  <si>
+    <t>T [°C]</t>
+  </si>
+  <si>
+    <t>T0 [K]</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>DT/T0T</t>
+  </si>
+  <si>
+    <t>Sdev</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Error1</t>
+  </si>
+  <si>
+    <t>1/T0</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Slope0</t>
+  </si>
+  <si>
+    <t>Error2</t>
   </si>
 </sst>
 </file>
@@ -186,16 +110,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,12 +123,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -274,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -291,32 +201,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,7 +543,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,313 +552,267 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="A2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
         <v>3.62</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>276.77</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>39.51</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>3.9510000000000001</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>3951000</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>277.25302327874698</v>
       </c>
-      <c r="I2" s="9">
-        <f t="shared" ref="I2:I5" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
+      <c r="I2" s="8">
         <v>2.2695045842624495E-10</v>
       </c>
-      <c r="J2" s="9">
-        <f t="shared" ref="J2:J5" si="1">H2-D2</f>
+      <c r="J2" s="8">
         <v>0.48302327874699813</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K5" si="2">(H2-D2)/(H2*D2)</f>
         <v>6.2946669597520824E-6</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K5)</f>
         <v>8.7101058478535959E-7</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2" si="3">AVERAGE(K2:K5)</f>
         <v>7.1735921161864125E-6</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="4">100*L2/M2</f>
         <v>12.141902838607468</v>
       </c>
-      <c r="O2" s="10">
-        <f t="shared" ref="O2:O5" si="5">LN(F2)</f>
+      <c r="O2" s="9">
         <v>1.3739687114292538</v>
       </c>
-      <c r="P2" s="10">
-        <f t="shared" ref="P2:P5" si="6">1/D2</f>
+      <c r="P2" s="9">
         <v>3.6131083571196302E-3</v>
       </c>
-      <c r="Q2" s="10">
-        <f t="shared" ref="Q2:Q5" si="7">1/H2</f>
+      <c r="Q2" s="9">
         <v>3.606813690159878E-3</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2" si="8">SLOPE(O2:O5,P2:P5)</f>
         <v>-8518.1387245161186</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2" si="9">SLOPE(O2:O5,Q2:Q5)</f>
         <v>-8381.6844732349527</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="10">100*ABS(S2-R2)/ABS(S2)</f>
         <v>1.6280051070510013</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="7">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="6">
         <v>7.46</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>280.61</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>58.37</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>5.8369999999999997</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>5837000</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>281.12914885512777</v>
       </c>
-      <c r="I3" s="9">
-        <f t="shared" si="0"/>
+      <c r="I3" s="8">
         <v>-4.3023362650274066E-12</v>
       </c>
-      <c r="J3" s="9">
-        <f t="shared" si="1"/>
+      <c r="J3" s="8">
         <v>0.519148855127753</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
         <v>6.5808634443920373E-6</v>
       </c>
-      <c r="O3" s="10">
-        <f t="shared" si="5"/>
+      <c r="O3" s="9">
         <v>1.764216966221654</v>
       </c>
-      <c r="P3" s="10">
-        <f t="shared" si="6"/>
+      <c r="P3" s="9">
         <v>3.5636648729553471E-3</v>
       </c>
-      <c r="Q3" s="10">
-        <f t="shared" si="7"/>
+      <c r="Q3" s="9">
         <v>3.5570840095109552E-3</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="7">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6">
         <v>9.9700000000000006</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>283.12</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>77.64</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>7.7640000000000002</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>7764000</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>283.77040192251656</v>
       </c>
-      <c r="I4" s="9">
-        <f t="shared" si="0"/>
+      <c r="I4" s="8">
         <v>-5.3250737153121008E-11</v>
       </c>
-      <c r="J4" s="9">
-        <f t="shared" si="1"/>
+      <c r="J4" s="8">
         <v>0.65040192251655071</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
         <v>8.0955092132418153E-6</v>
       </c>
-      <c r="O4" s="10">
-        <f t="shared" si="5"/>
+      <c r="O4" s="9">
         <v>2.049497665306764</v>
       </c>
-      <c r="P4" s="10">
-        <f t="shared" si="6"/>
+      <c r="P4" s="9">
         <v>3.5320712065555239E-3</v>
       </c>
-      <c r="Q4" s="10">
-        <f t="shared" si="7"/>
+      <c r="Q4" s="9">
         <v>3.5239756973422824E-3</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="6">
         <v>12.12</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>285.27</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>98.86</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>9.8859999999999992</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>9886000</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>285.89990439576133</v>
       </c>
-      <c r="I5" s="9">
-        <f t="shared" si="0"/>
+      <c r="I5" s="8">
         <v>3.9225511727636331E-11</v>
       </c>
-      <c r="J5" s="9">
-        <f t="shared" si="1"/>
+      <c r="J5" s="8">
         <v>0.62990439576134349</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
         <v>7.7233288473597132E-6</v>
       </c>
-      <c r="O5" s="10">
-        <f t="shared" si="5"/>
+      <c r="O5" s="9">
         <v>2.2911196148847677</v>
       </c>
-      <c r="P5" s="10">
-        <f t="shared" si="6"/>
+      <c r="P5" s="9">
         <v>3.505450976268097E-3</v>
       </c>
-      <c r="Q5" s="10">
-        <f t="shared" si="7"/>
+      <c r="Q5" s="9">
         <v>3.4977276474207372E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2337B4B-6033-4743-829F-1F885DE8F5E8}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,257 +821,221 @@
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10">
         <v>6.93</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="11">
         <v>280.08</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="10">
         <v>62.91</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="10">
         <v>6.2910000000000004</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="11">
         <v>6291000</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="11">
         <v>281.83744762056403</v>
       </c>
-      <c r="I2" s="9">
-        <f t="shared" ref="I2:I4" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
+      <c r="I2" s="8">
         <v>8.5640827762745175E-11</v>
       </c>
-      <c r="J2" s="9">
-        <f t="shared" ref="J2:J4" si="1">H2-D2</f>
+      <c r="J2" s="8">
         <v>1.7574476205640508</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K4" si="2">(H2-D2)/(H2*D2)</f>
         <v>2.2263918071135299E-5</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K4)</f>
         <v>4.0279571014017118E-7</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(K2:K4)</f>
         <v>2.2463590405229428E-5</v>
       </c>
-      <c r="N2" s="16">
-        <f t="shared" ref="N2" si="3">100*L2/M2</f>
+      <c r="N2" s="12">
         <v>1.7931047658632613</v>
       </c>
-      <c r="O2" s="10">
-        <f t="shared" ref="O2:O4" si="4">LN(F2)</f>
+      <c r="O2" s="9">
         <v>1.8391200405878927</v>
       </c>
-      <c r="P2" s="10">
-        <f t="shared" ref="P2:P4" si="5">1/D2</f>
+      <c r="P2" s="9">
         <v>3.5704084547272209E-3</v>
       </c>
-      <c r="Q2" s="10">
-        <f t="shared" ref="Q2:Q4" si="6">1/H2</f>
+      <c r="Q2" s="9">
         <v>3.5481445366560855E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O4,P2:P4)</f>
         <v>-9081.9358042048134</v>
       </c>
       <c r="S2">
-        <f>SLOPE(O2:O4,Q2:Q4)</f>
         <v>-8974.466853506312</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="7">100*ABS(S2-R2)/ABS(S2)</f>
         <v>1.1974967700339041</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="14">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="10">
         <v>9.23</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <v>282.38</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <v>81.099999999999994</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="10">
         <v>8.11</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>8110000</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="11">
         <v>284.1613316857443</v>
       </c>
-      <c r="I3" s="9">
-        <f t="shared" si="0"/>
+      <c r="I3" s="8">
         <v>3.461231301571388E-11</v>
       </c>
-      <c r="J3" s="9">
-        <f t="shared" si="1"/>
+      <c r="J3" s="8">
         <v>1.7813316857443056</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
         <v>2.2199637342975547E-5</v>
       </c>
-      <c r="O3" s="10">
-        <f t="shared" si="4"/>
+      <c r="O3" s="9">
         <v>2.0930978681273213</v>
       </c>
-      <c r="P3" s="10">
-        <f t="shared" si="5"/>
+      <c r="P3" s="9">
         <v>3.5413272894680927E-3</v>
       </c>
-      <c r="Q3" s="10">
-        <f t="shared" si="6"/>
+      <c r="Q3" s="9">
         <v>3.5191276521251173E-3</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="14">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="10">
         <v>11.04</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>284.19</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="10">
         <v>100.64</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>10.064</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>10064000</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="11">
         <v>286.05383682499172</v>
       </c>
-      <c r="I4" s="9">
-        <f t="shared" si="0"/>
+      <c r="I4" s="8">
         <v>1.0649259252204502E-11</v>
       </c>
-      <c r="J4" s="9">
-        <f t="shared" si="1"/>
+      <c r="J4" s="8">
         <v>1.8638368249917221</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
         <v>2.292721580157744E-5</v>
       </c>
-      <c r="O4" s="10">
-        <f t="shared" si="4"/>
+      <c r="O4" s="9">
         <v>2.3089646999580848</v>
       </c>
-      <c r="P4" s="10">
-        <f t="shared" si="5"/>
+      <c r="P4" s="9">
         <v>3.5187726520989481E-3</v>
       </c>
-      <c r="Q4" s="10">
-        <f t="shared" si="6"/>
+      <c r="Q4" s="9">
         <v>3.4958454362973707E-3</v>
       </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>